--- a/data_raw/CME_ETHUSD_RR_latest.xlsx
+++ b/data_raw/CME_ETHUSD_RR_latest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D380"/>
+  <dimension ref="A1:D388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6519,6 +6519,134 @@
         <v>4768.78</v>
       </c>
     </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>2025-08-24</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>4779.8</v>
+      </c>
+      <c r="C381" t="n">
+        <v>4880.29</v>
+      </c>
+      <c r="D381" t="n">
+        <v>4768.78</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>4657.76</v>
+      </c>
+      <c r="C382" t="n">
+        <v>4505.52</v>
+      </c>
+      <c r="D382" t="n">
+        <v>4621.95</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>4505.57</v>
+      </c>
+      <c r="C383" t="n">
+        <v>4563.05</v>
+      </c>
+      <c r="D383" t="n">
+        <v>4420.34</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>4621.34</v>
+      </c>
+      <c r="C384" t="n">
+        <v>4568.66</v>
+      </c>
+      <c r="D384" t="n">
+        <v>4577.89</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>4573.24</v>
+      </c>
+      <c r="C385" t="n">
+        <v>4470.33</v>
+      </c>
+      <c r="D385" t="n">
+        <v>4578.95</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>4299.82</v>
+      </c>
+      <c r="C386" t="n">
+        <v>4347.43</v>
+      </c>
+      <c r="D386" t="n">
+        <v>4396.31</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>4355.88</v>
+      </c>
+      <c r="C387" t="n">
+        <v>4349.19</v>
+      </c>
+      <c r="D387" t="n">
+        <v>4399.77</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>4462.24</v>
+      </c>
+      <c r="C388" t="n">
+        <v>4473.87</v>
+      </c>
+      <c r="D388" t="n">
+        <v>4448.78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_raw/CME_ETHUSD_RR_latest.xlsx
+++ b/data_raw/CME_ETHUSD_RR_latest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D393"/>
+  <dimension ref="A1:D400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6727,6 +6727,118 @@
         <v>4380.73</v>
       </c>
     </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>2025-09-06</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>4297.78</v>
+      </c>
+      <c r="C394" t="n">
+        <v>4266.18</v>
+      </c>
+      <c r="D394" t="n">
+        <v>4306.97</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>4303.15</v>
+      </c>
+      <c r="C395" t="n">
+        <v>4286.82</v>
+      </c>
+      <c r="D395" t="n">
+        <v>4292.52</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>4337.28</v>
+      </c>
+      <c r="C396" t="n">
+        <v>4303.83</v>
+      </c>
+      <c r="D396" t="n">
+        <v>4297.15</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>4311.4</v>
+      </c>
+      <c r="C397" t="n">
+        <v>4292.99</v>
+      </c>
+      <c r="D397" t="n">
+        <v>4367.05</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>4427.17</v>
+      </c>
+      <c r="C398" t="n">
+        <v>4320.38</v>
+      </c>
+      <c r="D398" t="n">
+        <v>4323.38</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>4422.02</v>
+      </c>
+      <c r="C399" t="n">
+        <v>4422.98</v>
+      </c>
+      <c r="D399" t="n">
+        <v>4440.36</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>4549.6</v>
+      </c>
+      <c r="C400" t="n">
+        <v>4638.02</v>
+      </c>
+      <c r="D400" t="n">
+        <v>4538.11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_raw/CME_ETHUSD_RR_latest.xlsx
+++ b/data_raw/CME_ETHUSD_RR_latest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D400"/>
+  <dimension ref="A1:D406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6839,6 +6839,102 @@
         <v>4538.11</v>
       </c>
     </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>4693.13</v>
+      </c>
+      <c r="C401" t="n">
+        <v>4645</v>
+      </c>
+      <c r="D401" t="n">
+        <v>4717.84</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>4612.51</v>
+      </c>
+      <c r="C402" t="n">
+        <v>4616.76</v>
+      </c>
+      <c r="D402" t="n">
+        <v>4662.68</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>4518.41</v>
+      </c>
+      <c r="C403" t="n">
+        <v>4496.63</v>
+      </c>
+      <c r="D403" t="n">
+        <v>4620.76</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>4443.49</v>
+      </c>
+      <c r="C404" t="n">
+        <v>4482.99</v>
+      </c>
+      <c r="D404" t="n">
+        <v>4511.1</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>4490.98</v>
+      </c>
+      <c r="C405" t="n">
+        <v>4499.9</v>
+      </c>
+      <c r="D405" t="n">
+        <v>4546.61</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>4607.28</v>
+      </c>
+      <c r="C406" t="n">
+        <v>4600.66</v>
+      </c>
+      <c r="D406" t="n">
+        <v>4579.21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
